--- a/whales.xlsx
+++ b/whales.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Desktop/Whale Research Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyra/Documents/GitHub/Baleen whales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23708AC5-5CF2-1142-B60E-64341DB7BFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F44F47C-6A67-3B4E-B8D0-3B1DB195C9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{488574B7-0350-0544-8528-1FDDB31E2421}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="28040" windowHeight="16040" activeTab="2" xr2:uid="{488574B7-0350-0544-8528-1FDDB31E2421}"/>
   </bookViews>
   <sheets>
     <sheet name="Baleen" sheetId="2" r:id="rId1"/>
     <sheet name="Toothed" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Number of publications for each" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$C$2:$C$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Balaenoptera musculus</t>
   </si>
@@ -228,15 +241,9 @@
     <t>Bryde's whale</t>
   </si>
   <si>
-    <t># of records 2000-2009</t>
-  </si>
-  <si>
     <t>total records</t>
   </si>
   <si>
-    <t># of records 2010-2019</t>
-  </si>
-  <si>
     <t>NT</t>
   </si>
   <si>
@@ -253,13 +260,31 @@
   </si>
   <si>
     <t>Mature Individuals</t>
+  </si>
+  <si>
+    <t>Average Mass(kg)</t>
+  </si>
+  <si>
+    <t>Average Length(m)</t>
+  </si>
+  <si>
+    <t>records 2000-2009</t>
+  </si>
+  <si>
+    <t>records 2010-2019</t>
+  </si>
+  <si>
+    <t>2010-2019</t>
+  </si>
+  <si>
+    <t>2000-2009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,6 +313,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -312,11 +351,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,10 +364,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,6 +383,3284 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1"/>
+              <a:t>Proportion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" baseline="0"/>
+              <a:t> of studies of famlies </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
+              <a:t>2010</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" baseline="0"/>
+              <a:t> - 20</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2000" b="1" baseline="0"/>
+              <a:t>9</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22107308217184932"/>
+          <c:y val="0.1204525677106658"/>
+          <c:w val="0.54597600865999141"/>
+          <c:h val="0.87435314839805467"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16114929755018234"/>
+                  <c:y val="-1.5625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.3691452064059572E-3"/>
+                  <c:y val="2.1874999999999999E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{DAD6A5A0-6A02-3C46-80D9-B63E03E0001B}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr sz="1600">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1600">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{485091CE-F888-9543-B093-9552E6B976C7}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="1600">
+                          <a:solidFill>
+                            <a:schemeClr val="bg1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.17158652531011867"/>
+                      <c:h val="0.32039074803149603"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Right &amp; Bowhead</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Pygmy right</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Gray</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rorqual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24015748031496062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0498687664041995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6867891513560802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69247594050743655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EB1E-C14F-BD51-CDA452C2F1D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="4400" b="1"/>
+              <a:t>Number of publications</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="4400" b="1" baseline="0"/>
+              <a:t> for each species</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="4400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baleen!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scientific name</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Eubalaena glacialis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eubalaena japonica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eubalaena australis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balaena mysticetus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caperea marginata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eschrichtius robustus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balaenoptera musculus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Balaenoptera physalus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Megaptera novaeangliae</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Balaenoptera omurai</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Balaenoptera edeni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Balaenoptera borealis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Balaenoptera acutorostrata</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Balaenoptera bonaerensis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE0E-A244-928E-2E0081C1B64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baleen!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>records 2000-2009</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Eubalaena glacialis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eubalaena japonica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eubalaena australis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balaena mysticetus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caperea marginata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eschrichtius robustus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balaenoptera musculus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Balaenoptera physalus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Megaptera novaeangliae</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Balaenoptera omurai</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Balaenoptera edeni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Balaenoptera borealis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Balaenoptera acutorostrata</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Balaenoptera bonaerensis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baleen!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE0E-A244-928E-2E0081C1B64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baleen!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>records 2010-2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baleen!$C$2:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Eubalaena glacialis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eubalaena japonica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Eubalaena australis</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Balaena mysticetus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caperea marginata</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Eschrichtius robustus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balaenoptera musculus</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Balaenoptera physalus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Megaptera novaeangliae</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Balaenoptera omurai</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Balaenoptera edeni</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Balaenoptera borealis</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Balaenoptera acutorostrata</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Balaenoptera bonaerensis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baleen!$E$2:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE0E-A244-928E-2E0081C1B64D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="12705136"/>
+        <c:axId val="13422096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="12705136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13422096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="13422096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2800" baseline="0"/>
+                  <a:t> of publications</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="2800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12705136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72824004313673607"/>
+          <c:y val="8.652872469299272E-2"/>
+          <c:w val="0.24385862689350069"/>
+          <c:h val="0.1754058810266364"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-GB" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Proportion of studies of famlies 2000 - 2009</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2000" b="1"/>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{6FEA127D-CE83-104D-9FFF-B1A691E6F09B}">
+          <cx:dataPt idx="0"/>
+          <cx:dataPt idx="3"/>
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB20F38-9C36-9D43-A4F5-AA171913A4A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="825500" y="2859616"/>
+              <a:ext cx="7488767" cy="4658784"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA52019-4115-644B-828F-9677AAF70839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E2F5B3-090C-FF45-9FF4-85143943EF4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -639,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE5A31C-1B9C-7140-9FE3-2F0B01AE4EBF}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="86" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,13 +3972,16 @@
     <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -665,25 +3989,37 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
       <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -703,17 +4039,32 @@
         <f t="shared" ref="F2:F3" si="0">D2+E2</f>
         <v>299</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <f>SUM(D2:D5)</f>
+        <v>302</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2:E5)</f>
+        <v>549</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
+      <c r="L2">
+        <f xml:space="preserve"> (55000+ 95000)/2</f>
+        <v>75000</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,17 +4081,24 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>6</v>
       </c>
+      <c r="L3">
+        <f>(63500+72574)/2</f>
+        <v>68037</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -757,17 +4115,23 @@
         <f>D4+E4</f>
         <v>183</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
+      <c r="L4">
+        <v>49000</v>
+      </c>
+      <c r="M4">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,17 +4148,24 @@
         <f t="shared" ref="F5:F15" si="1">D5+E5</f>
         <v>319</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>10000</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
+      <c r="L5">
+        <f>(75000+100000)/2</f>
+        <v>87500</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -814,17 +4185,31 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <f>D6</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>E6</f>
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
+      <c r="L6">
+        <v>4500</v>
+      </c>
+      <c r="M6">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -844,17 +4229,32 @@
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <f>D7</f>
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <f>E7</f>
+        <v>130</v>
+      </c>
+      <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>18</v>
       </c>
+      <c r="L7">
+        <v>36000</v>
+      </c>
+      <c r="M7" s="7">
+        <f>(11.1+15.2)/2</f>
+        <v>13.149999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -874,17 +4274,31 @@
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <f>SUM(D8:D15)</f>
+        <v>756</v>
+      </c>
+      <c r="H8">
+        <f>SUM(E8:E15)</f>
+        <v>1583</v>
+      </c>
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L8">
+        <v>190000</v>
+      </c>
+      <c r="M8">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
@@ -901,17 +4315,23 @@
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>100000</v>
       </c>
-      <c r="I9" t="s">
-        <v>68</v>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9">
+        <v>70000</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -928,22 +4348,28 @@
         <f t="shared" si="1"/>
         <v>795</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>84000</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>31</v>
       </c>
+      <c r="L10">
+        <v>30000</v>
+      </c>
+      <c r="M10">
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -955,17 +4381,23 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" t="s">
-        <v>70</v>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
@@ -982,17 +4414,24 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>8</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>61</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>63</v>
       </c>
+      <c r="L12">
+        <f>(13600+15000)/2</f>
+        <v>14300</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1009,17 +4448,24 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>61</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
+      <c r="L13">
+        <v>20000</v>
+      </c>
+      <c r="M13">
+        <f>(12.2+15.2)/2</f>
+        <v>13.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1036,17 +4482,24 @@
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>200000</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>36</v>
       </c>
+      <c r="L14">
+        <f>(6000+9000)/2</f>
+        <v>7500</v>
+      </c>
+      <c r="M14">
+        <v>5.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1063,23 +4516,30 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>37</v>
       </c>
+      <c r="L15">
+        <v>6850</v>
+      </c>
+      <c r="M15">
+        <f>(6.32+10.22)/2</f>
+        <v>8.27</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="http://au.whales.org/whales-dolphins/species-guide/north-atlantic-right-whale/" xr:uid="{F3D39986-1451-9A4A-9DAF-51B7E0E53DB5}"/>
-    <hyperlink ref="I3" r:id="rId2" display="http://au.whales.org/whales-dolphins/species-guide/north-pacific-right-whale/" xr:uid="{C6071610-1A8F-3645-81C7-70C3F055BF64}"/>
+    <hyperlink ref="K2" r:id="rId1" display="http://au.whales.org/whales-dolphins/species-guide/north-atlantic-right-whale/" xr:uid="{F3D39986-1451-9A4A-9DAF-51B7E0E53DB5}"/>
+    <hyperlink ref="K3" r:id="rId2" display="http://au.whales.org/whales-dolphins/species-guide/north-pacific-right-whale/" xr:uid="{C6071610-1A8F-3645-81C7-70C3F055BF64}"/>
     <hyperlink ref="C14" r:id="rId3" display="https://en.wikipedia.org/wiki/Balaenoptera_acutorostrata" xr:uid="{E3D921A6-8CC8-4245-8EE7-B4FEBC2CBE53}"/>
     <hyperlink ref="B15" r:id="rId4" display="https://en.wikipedia.org/wiki/Rorqual" xr:uid="{CCB7419A-0A8E-E044-AE6A-B2557372498A}"/>
     <hyperlink ref="B14" r:id="rId5" display="https://en.wikipedia.org/wiki/Rorqual" xr:uid="{86B52565-002A-F740-97E4-FF1CB04CCEB6}"/>
@@ -1244,4 +4704,118 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88F0927-71D9-984C-8534-891702B19623}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>302</f>
+        <v>302</v>
+      </c>
+      <c r="C2" s="8">
+        <f>B2/SUM($B$2:$B$5)</f>
+        <v>0.26283724978241951</v>
+      </c>
+      <c r="D2">
+        <v>549</v>
+      </c>
+      <c r="E2" s="8">
+        <f>D2/SUM($D$2:$D$5)</f>
+        <v>0.24015748031496062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:C5" si="0">B3/SUM($B$2:$B$5)</f>
+        <v>3.4812880765883376E-3</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E5" si="1">D3/SUM($D$2:$D$5)</f>
+        <v>1.0498687664041995E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5718015665796348E-2</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>5.6867891513560802E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>756</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65796344647519578</v>
+      </c>
+      <c r="D5">
+        <v>1583</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.69247594050743655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA1CDC-4C2F-1F4C-A169-70A032E5F308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="66" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>